--- a/result/with_base/123/arousal/s13_8.xlsx
+++ b/result/with_base/123/arousal/s13_8.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>accuracy</t>
   </si>
@@ -84,15 +82,6 @@
   </si>
   <si>
     <t>train_loss</t>
-  </si>
-  <si>
-    <t>fpr</t>
-  </si>
-  <si>
-    <t>roc_auc</t>
-  </si>
-  <si>
-    <t>tpr</t>
   </si>
 </sst>
 </file>
@@ -492,10 +481,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.9525000154972076</v>
+        <v>0.9626116156578064</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -510,13 +499,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.862500011920929</v>
+        <v>0.8470982015132904</v>
       </c>
       <c r="C2" t="n">
-        <v>41726.3671875</v>
+        <v>11283.630859375</v>
       </c>
       <c r="D2" t="n">
-        <v>0.87090910022909</v>
+        <v>0.855764182174907</v>
       </c>
       <c r="E2" t="n">
-        <v>41720.91548295454</v>
+        <v>11282.69019990809</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8449999988079071</v>
+        <v>0.8783482015132904</v>
       </c>
       <c r="C3" t="n">
-        <v>40944.193359375</v>
+        <v>10971.466796875</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8897727240215648</v>
+        <v>0.8889837194891537</v>
       </c>
       <c r="E3" t="n">
-        <v>40939.72230113636</v>
+        <v>10970.35345818015</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8675000071525574</v>
+        <v>0.8800223171710968</v>
       </c>
       <c r="C4" t="n">
-        <v>40170.173828125</v>
+        <v>10667.248046875</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9139772707765753</v>
+        <v>0.9035582998219658</v>
       </c>
       <c r="E4" t="n">
-        <v>40166.11860795454</v>
+        <v>10665.78182444853</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8925000131130219</v>
+        <v>0.8922991156578064</v>
       </c>
       <c r="C5" t="n">
-        <v>39404.5703125</v>
+        <v>10369.2373046875</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9324999993497675</v>
+        <v>0.9170824569814345</v>
       </c>
       <c r="E5" t="n">
-        <v>39401.00461647727</v>
+        <v>10367.88149126838</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9074999988079071</v>
+        <v>0.9123883843421936</v>
       </c>
       <c r="C6" t="n">
-        <v>38649.46875</v>
+        <v>10077.8203125</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9480681744488803</v>
+        <v>0.9371060939396129</v>
       </c>
       <c r="E6" t="n">
-        <v>38646.62748579546</v>
+        <v>10076.75028722426</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8950000107288361</v>
+        <v>0.9040178656578064</v>
       </c>
       <c r="C7" t="n">
-        <v>37908.1875</v>
+        <v>9793.69091796875</v>
       </c>
       <c r="D7" t="n">
-        <v>0.938295451077548</v>
+        <v>0.9366465351160835</v>
       </c>
       <c r="E7" t="n">
-        <v>37905.60582386364</v>
+        <v>9792.39102711397</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9325000047683716</v>
+        <v>0.9207589328289032</v>
       </c>
       <c r="C8" t="n">
-        <v>37176.48046875</v>
+        <v>9515.8623046875</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9670454588803378</v>
+        <v>0.9523371843730702</v>
       </c>
       <c r="E8" t="n">
-        <v>37174.14204545454</v>
+        <v>9514.574448529413</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +680,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9157366156578064</v>
       </c>
       <c r="C9" t="n">
-        <v>36459.080078125</v>
+        <v>9244.87939453125</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9612500017339533</v>
+        <v>0.9536502115866717</v>
       </c>
       <c r="E9" t="n">
-        <v>36456.88565340909</v>
+        <v>9243.6796875</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9224999845027924</v>
+        <v>0.9246651828289032</v>
       </c>
       <c r="C10" t="n">
-        <v>35753.41796875</v>
+        <v>8980.443359375</v>
       </c>
       <c r="D10" t="n">
-        <v>0.971931825984608</v>
+        <v>0.9634978981579051</v>
       </c>
       <c r="E10" t="n">
-        <v>35751.07421875</v>
+        <v>8979.401137408087</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9249999821186066</v>
+        <v>0.9162946343421936</v>
       </c>
       <c r="C11" t="n">
-        <v>35059.78125</v>
+        <v>8722.8564453125</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9797727357257496</v>
+        <v>0.9667804626857534</v>
       </c>
       <c r="E11" t="n">
-        <v>35057.64630681818</v>
+        <v>8721.774069393383</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +731,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9249999821186066</v>
+        <v>0.9291294515132904</v>
       </c>
       <c r="C12" t="n">
-        <v>34379.783203125</v>
+        <v>8471.75390625</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9732954664663835</v>
+        <v>0.9717043077244478</v>
       </c>
       <c r="E12" t="n">
-        <v>34376.79296875</v>
+        <v>8470.720818014706</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +748,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9246651828289032</v>
       </c>
       <c r="C13" t="n">
-        <v>33710.296875</v>
+        <v>8227.17578125</v>
       </c>
       <c r="D13" t="n">
-        <v>0.985113647851077</v>
+        <v>0.9674369762925541</v>
       </c>
       <c r="E13" t="n">
-        <v>33707.61896306818</v>
+        <v>8226.204790900736</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9375</v>
       </c>
       <c r="C14" t="n">
-        <v>33053.939453125</v>
+        <v>7988.79736328125</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9763636480678212</v>
+        <v>0.9742647058823529</v>
       </c>
       <c r="E14" t="n">
-        <v>33051.06036931818</v>
+        <v>7987.848489200368</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +782,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9168526828289032</v>
       </c>
       <c r="C15" t="n">
-        <v>32408.7021484375</v>
+        <v>7757.220947265625</v>
       </c>
       <c r="D15" t="n">
-        <v>0.987500011920929</v>
+        <v>0.961068802020129</v>
       </c>
       <c r="E15" t="n">
-        <v>32406.16743607954</v>
+        <v>7755.973862591912</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +799,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.93359375</v>
       </c>
       <c r="C16" t="n">
-        <v>31775.1025390625</v>
+        <v>7530.544189453125</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9917045506564054</v>
+        <v>0.9820115531192106</v>
       </c>
       <c r="E16" t="n">
-        <v>31773.14968039773</v>
+        <v>7529.677763097427</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +816,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.92578125</v>
       </c>
       <c r="C17" t="n">
-        <v>31154.4775390625</v>
+        <v>7310.583251953125</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9834091067314148</v>
+        <v>0.9724264705882353</v>
       </c>
       <c r="E17" t="n">
-        <v>31152.15536221591</v>
+        <v>7309.707261029412</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +833,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9300000071525574</v>
+        <v>0.9168526828289032</v>
       </c>
       <c r="C18" t="n">
-        <v>30544.423828125</v>
+        <v>7096.38427734375</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9876136454668912</v>
+        <v>0.9716386549613055</v>
       </c>
       <c r="E18" t="n">
-        <v>30542.09925426136</v>
+        <v>7095.472225413603</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +850,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9375</v>
       </c>
       <c r="C19" t="n">
-        <v>29945.3349609375</v>
+        <v>6887.5654296875</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9935227307406339</v>
+        <v>0.9837184863931993</v>
       </c>
       <c r="E19" t="n">
-        <v>29943.29012784091</v>
+        <v>6886.844784007353</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +867,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9375</v>
+        <v>0.9168526828289032</v>
       </c>
       <c r="C20" t="n">
-        <v>29357.7978515625</v>
+        <v>6684.89599609375</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9922727346420288</v>
+        <v>0.9705225825309753</v>
       </c>
       <c r="E20" t="n">
-        <v>29355.74307528409</v>
+        <v>6683.93505859375</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +884,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9330357015132904</v>
       </c>
       <c r="C21" t="n">
-        <v>28781.1689453125</v>
+        <v>6487.08251953125</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9880681904879484</v>
+        <v>0.9860819332739886</v>
       </c>
       <c r="E21" t="n">
-        <v>28779.11576704546</v>
+        <v>6486.28963694853</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +901,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9375</v>
+        <v>0.9252232015132904</v>
       </c>
       <c r="C22" t="n">
-        <v>28215.357421875</v>
+        <v>6294.93359375</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9937500032511625</v>
+        <v>0.9791228981579051</v>
       </c>
       <c r="E22" t="n">
-        <v>28212.99893465909</v>
+        <v>6294.083237591912</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +918,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9458705484867096</v>
       </c>
       <c r="C23" t="n">
-        <v>27659.900390625</v>
+        <v>6107.574462890625</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9957954558459196</v>
+        <v>0.9885110294117647</v>
       </c>
       <c r="E23" t="n">
-        <v>27657.52982954546</v>
+        <v>6107.017922794118</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +935,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9249999821186066</v>
+        <v>0.94140625</v>
       </c>
       <c r="C24" t="n">
-        <v>27114.6943359375</v>
+        <v>5925.860595703125</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9846591028300199</v>
+        <v>0.9816176470588235</v>
       </c>
       <c r="E24" t="n">
-        <v>27112.53196022727</v>
+        <v>5925.121467141544</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +952,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9375</v>
+        <v>0.93359375</v>
       </c>
       <c r="C25" t="n">
-        <v>26579.4228515625</v>
+        <v>5748.699951171875</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9954545497894287</v>
+        <v>0.9869353981579051</v>
       </c>
       <c r="E25" t="n">
-        <v>26577.494140625</v>
+        <v>5748.114315257353</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +969,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9475000202655792</v>
+        <v>0.9174107015132904</v>
       </c>
       <c r="C26" t="n">
-        <v>26054.736328125</v>
+        <v>5576.656005859375</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9945454597473145</v>
+        <v>0.980042015804964</v>
       </c>
       <c r="E26" t="n">
-        <v>26052.63210227273</v>
+        <v>5576.000028722427</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +986,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9380580484867096</v>
       </c>
       <c r="C27" t="n">
-        <v>25539.42578125</v>
+        <v>5409.080078125</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9954545497894287</v>
+        <v>0.9855567216873169</v>
       </c>
       <c r="E27" t="n">
-        <v>25537.47141335227</v>
+        <v>5408.524586397059</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1003,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9274999797344208</v>
+        <v>0.9375</v>
       </c>
       <c r="C28" t="n">
-        <v>25034.1298828125</v>
+        <v>5246.190185546875</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9945454597473145</v>
+        <v>0.9839154411764706</v>
       </c>
       <c r="E28" t="n">
-        <v>25032.09854403409</v>
+        <v>5245.65780101103</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1020,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9475000202655792</v>
+        <v>0.9536830484867096</v>
       </c>
       <c r="C29" t="n">
-        <v>24537.818359375</v>
+        <v>5087.559326171875</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9962500008669767</v>
+        <v>0.9948792001780342</v>
       </c>
       <c r="E29" t="n">
-        <v>24536.10848721591</v>
+        <v>5087.217055376838</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1037,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9500000178813934</v>
+        <v>0.9464285671710968</v>
       </c>
       <c r="C30" t="n">
-        <v>24050.884765625</v>
+        <v>4933.577880859375</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9902836119427401</v>
       </c>
       <c r="E30" t="n">
-        <v>24049.37890625</v>
+        <v>4933.213091681985</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1054,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.929999977350235</v>
+        <v>0.9458705484867096</v>
       </c>
       <c r="C31" t="n">
-        <v>23573.96875</v>
+        <v>4783.81494140625</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9906818216497247</v>
+        <v>0.9933692216873169</v>
       </c>
       <c r="E31" t="n">
-        <v>23571.91530539773</v>
+        <v>4783.457232306985</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1071,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9475000202655792</v>
+        <v>0.9464285671710968</v>
       </c>
       <c r="C32" t="n">
-        <v>23104.935546875</v>
+        <v>4638.19677734375</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9914772781458768</v>
+        <v>0.9912027295897988</v>
       </c>
       <c r="E32" t="n">
-        <v>23103.20720880682</v>
+        <v>4637.841624540441</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9249999821186066</v>
+        <v>0.9252232015132904</v>
       </c>
       <c r="C33" t="n">
-        <v>22645.15234375</v>
+        <v>4496.742919921875</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9886363744735718</v>
+        <v>0.9883797273916357</v>
       </c>
       <c r="E33" t="n">
-        <v>22643.41033380682</v>
+        <v>4496.289435891544</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1105,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.93359375</v>
       </c>
       <c r="C34" t="n">
-        <v>22193.9072265625</v>
+        <v>4359.255615234375</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9954545497894287</v>
+        <v>0.9819459038622239</v>
       </c>
       <c r="E34" t="n">
-        <v>22192.13654119318</v>
+        <v>4358.674919577206</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1122,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9274999797344208</v>
+        <v>0.9291294515132904</v>
       </c>
       <c r="C35" t="n">
-        <v>21750.8408203125</v>
+        <v>4225.36328125</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9833902295897988</v>
       </c>
       <c r="E35" t="n">
-        <v>21749.39577414773</v>
+        <v>4224.871524586397</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1139,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9419642984867096</v>
       </c>
       <c r="C36" t="n">
-        <v>21316.615234375</v>
+        <v>4095.104370117188</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9957954558459196</v>
+        <v>0.9915966391563416</v>
       </c>
       <c r="E36" t="n">
-        <v>21315.03071732954</v>
+        <v>4094.79838292739</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1156,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9458705484867096</v>
       </c>
       <c r="C37" t="n">
-        <v>20890.2197265625</v>
+        <v>3968.608642578125</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9957954558459196</v>
+        <v>0.9841780452167287</v>
       </c>
       <c r="E37" t="n">
-        <v>20888.78551136364</v>
+        <v>3968.416518267463</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1173,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9375</v>
+        <v>0.9458705484867096</v>
       </c>
       <c r="C38" t="n">
-        <v>20472.4287109375</v>
+        <v>3845.807861328125</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9931818246841431</v>
+        <v>0.9926470588235294</v>
       </c>
       <c r="E38" t="n">
-        <v>20470.64772727273</v>
+        <v>3845.563361672794</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1190,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9542410671710968</v>
       </c>
       <c r="C39" t="n">
-        <v>20062.0283203125</v>
+        <v>3726.423950195312</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9953387590015635</v>
       </c>
       <c r="E39" t="n">
-        <v>20060.35546875</v>
+        <v>3726.196274701287</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1207,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9547991156578064</v>
       </c>
       <c r="C40" t="n">
-        <v>19659.00390625</v>
+        <v>3610.453002929688</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9949448529411765</v>
       </c>
       <c r="E40" t="n">
-        <v>19657.81178977273</v>
+        <v>3610.198917164522</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1224,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9500000178813934</v>
+        <v>0.9508928656578064</v>
       </c>
       <c r="C41" t="n">
-        <v>19264.109375</v>
+        <v>3497.761352539062</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9975000023841858</v>
+        <v>0.9915966391563416</v>
       </c>
       <c r="E41" t="n">
-        <v>19262.87571022727</v>
+        <v>3497.49556238511</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1241,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9430803656578064</v>
       </c>
       <c r="C42" t="n">
-        <v>18876.8466796875</v>
+        <v>3388.356567382812</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9952272772789001</v>
+        <v>0.9822741606656242</v>
       </c>
       <c r="E42" t="n">
-        <v>18875.39701704546</v>
+        <v>3388.014217601103</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1258,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9670758843421936</v>
       </c>
       <c r="C43" t="n">
-        <v>18496.544921875</v>
+        <v>3281.764526367188</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.9944852941176471</v>
       </c>
       <c r="E43" t="n">
-        <v>18495.19850852273</v>
+        <v>3281.566305721507</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1275,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9587053656578064</v>
       </c>
       <c r="C44" t="n">
-        <v>18123.3779296875</v>
+        <v>3178.399536132812</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9948863658038053</v>
+        <v>0.9938944332739886</v>
       </c>
       <c r="E44" t="n">
-        <v>18122.21484375</v>
+        <v>3178.211856617647</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1292,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9324999749660492</v>
+        <v>0.9425223171710968</v>
       </c>
       <c r="C45" t="n">
-        <v>17757.23828125</v>
+        <v>3077.98388671875</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9959090948104858</v>
+        <v>0.9925157568034004</v>
       </c>
       <c r="E45" t="n">
-        <v>17756.259765625</v>
+        <v>3077.799057904412</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1309,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9391741156578064</v>
       </c>
       <c r="C46" t="n">
-        <v>17398.23046875</v>
+        <v>2980.534301757812</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9871323529411765</v>
       </c>
       <c r="E46" t="n">
-        <v>17397.21573153409</v>
+        <v>2980.285615808823</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1326,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9553571343421936</v>
       </c>
       <c r="C47" t="n">
-        <v>17046.1064453125</v>
+        <v>2885.757202148438</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9953409108248624</v>
+        <v>0.9866727941176471</v>
       </c>
       <c r="E47" t="n">
-        <v>17045.00284090909</v>
+        <v>2885.545122931985</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1343,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9375</v>
+        <v>0.9631696343421936</v>
       </c>
       <c r="C48" t="n">
-        <v>16700.431640625</v>
+        <v>2793.729370117188</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9912683823529411</v>
       </c>
       <c r="E48" t="n">
-        <v>16699.44158380682</v>
+        <v>2793.535859949448</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1360,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9324999749660492</v>
+        <v>0.9464285671710968</v>
       </c>
       <c r="C49" t="n">
-        <v>16361.443359375</v>
+        <v>2704.445556640625</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9952272772789001</v>
+        <v>0.984637604040258</v>
       </c>
       <c r="E49" t="n">
-        <v>16360.44717684659</v>
+        <v>2704.206787109375</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1377,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9375</v>
+        <v>0.9503348171710968</v>
       </c>
       <c r="C50" t="n">
-        <v>16028.7607421875</v>
+        <v>2617.593872070312</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9953409108248624</v>
+        <v>0.9948792001780342</v>
       </c>
       <c r="E50" t="n">
-        <v>16027.87766335227</v>
+        <v>2617.420137293198</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,850 +1394,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.9626116156578064</v>
       </c>
       <c r="C51" t="n">
-        <v>15702.57568359375</v>
+        <v>2533.352783203125</v>
       </c>
       <c r="D51" t="n">
-        <v>0.993977275761691</v>
+        <v>0.9902836119427401</v>
       </c>
       <c r="E51" t="n">
-        <v>15701.58833451705</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.9399999976158142</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15382.4384765625</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15381.48641690341</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.9475000202655792</v>
-      </c>
-      <c r="C53" t="n">
-        <v>15068.31640625</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.9970454573631287</v>
-      </c>
-      <c r="E53" t="n">
-        <v>15067.49236505682</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.9574999809265137</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14760.14111328125</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E54" t="n">
-        <v>14759.470703125</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C55" t="n">
-        <v>14458.00634765625</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14457.31471946023</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.9549999833106995</v>
-      </c>
-      <c r="C56" t="n">
-        <v>14161.642578125</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.9976136359301481</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14160.91388494318</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13870.94482421875</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.9915909171104431</v>
-      </c>
-      <c r="E57" t="n">
-        <v>13870.1923828125</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13585.6484375</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.9971590909090909</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13584.9501953125</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.9475000202655792</v>
-      </c>
-      <c r="C59" t="n">
-        <v>13305.79248046875</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.9985227259722623</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13305.16273082386</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.9249999821186066</v>
-      </c>
-      <c r="C60" t="n">
-        <v>13031.60009765625</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.9920454621315002</v>
-      </c>
-      <c r="E60" t="n">
-        <v>13030.76970880682</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.9500000178813934</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12762.1845703125</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12761.54190340909</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.9525000154972076</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12498.126953125</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12497.52432528409</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12239.03271484375</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.9980681809512052</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12238.56321022727</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.9574999809265137</v>
-      </c>
-      <c r="C64" t="n">
-        <v>11984.97216796875</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E64" t="n">
-        <v>11984.56107954545</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.9574999809265137</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11735.84716796875</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11735.43013139205</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11491.482421875</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11491.08212002841</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11251.8427734375</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11251.44948508523</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.9525000154972076</v>
-      </c>
-      <c r="C68" t="n">
-        <v>11016.8037109375</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.9985227259722623</v>
-      </c>
-      <c r="E68" t="n">
-        <v>11016.42400568182</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.9274999797344208</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10786.38134765625</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9928409132090482</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10785.97345525568</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.9424999952316284</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10560.294921875</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.9945454597473145</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10559.92134232955</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10338.57568359375</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10338.22913707386</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.9500000178813934</v>
-      </c>
-      <c r="C72" t="n">
-        <v>10121.1796875</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10120.82954545455</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.9500000178813934</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9908.02783203125</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9957954558459196</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9907.6513671875</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9698.947265625</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9957954558459196</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9698.59756747159</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C75" t="n">
-        <v>9493.9609375</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.9948863658038053</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9493.6083984375</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9292.90234375</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9292.582741477272</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.9574999809265137</v>
-      </c>
-      <c r="C77" t="n">
-        <v>9095.82666015625</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9095.4736328125</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C78" t="n">
-        <v>8902.45654296875</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E78" t="n">
-        <v>8902.204279119318</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.9525000154972076</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8713.00634765625</v>
-      </c>
-      <c r="D79" t="n">
-        <v>1</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8712.701882102272</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.9525000154972076</v>
-      </c>
-      <c r="C80" t="n">
-        <v>8527.10986328125</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8526.909889914772</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.9525000154972076</v>
-      </c>
-      <c r="C81" t="n">
-        <v>8344.98486328125</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8344.745649857954</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9942594718714122</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.282051282051282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9942594718714122</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.5897435897435898</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.004975124378109453</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9942594718714122</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.5897435897435898</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.004975124378109453</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9942594718714122</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7435897435897436</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.009950248756218905</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9942594718714122</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.7435897435897436</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.009950248756218905</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9942594718714122</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9230769230769231</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.02487562189054726</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9942594718714122</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9230769230769231</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.02487562189054726</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9942594718714122</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9743589743589743</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.07462686567164178</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9942594718714122</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9743589743589743</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.07462686567164178</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9942594718714122</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9942594718714122</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9942594718714122</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.8557213930348259</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9942594718714122</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.8656716417910447</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9942594718714122</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8756218905472637</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9942594718714122</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.9253731343283582</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.02564102564102564</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9942594718714122</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9253731343283582</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.02564102564102564</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9942594718714122</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9751243781094527</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9942594718714122</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9751243781094527</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9942594718714122</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9900497512437811</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.2564102564102564</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9942594718714122</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9900497512437811</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.2564102564102564</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9942594718714122</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9950248756218906</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.4102564102564102</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9942594718714122</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9950248756218906</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.4102564102564102</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9942594718714122</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9942594718714122</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
+        <v>2533.197954963235</v>
       </c>
     </row>
   </sheetData>
